--- a/xl_writer_format.xlsx
+++ b/xl_writer_format.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="750"/>
   </bookViews>
   <sheets>
     <sheet name="format1" sheetId="1" r:id="rId1"/>
